--- a/biology/Médecine/Claude-Nicolas_Le_Cat/Claude-Nicolas_Le_Cat.xlsx
+++ b/biology/Médecine/Claude-Nicolas_Le_Cat/Claude-Nicolas_Le_Cat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude-Nicolas Le Cat, né le 6 septembre 1700 à Blérancourt et mort le 20 août 1768 à Rouen, est un naturaliste et chirurgien français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils et petit-fils de chirurgien, il poursuit ses études à Paris en 1726 et devient en 1728 chirurgien-médecin de l'archevêque de Rouen, Louis de Tressan. En 1731, il devient chirurgien en chef de l'Hôtel-Dieu de Rouen et commence en 1734 à enseigner l'anatomie et reçoit en 1738 le titre de professeur et démonstrateur royal en anatomie et chirurgie.
-On lui doit plusieurs études d'urologie. Il fut un des premiers à pratiquer l'extraction chirurgicale des calculs de la vessie (1732), inventa ou perfectionna des instruments comme l'uréthrotome, le lithotome ou surtout, le gorgeret cystotome dilatateur[1] et fut le premier à extirper un polype de la vessie à travers l'urètre dilaté[1]. 
+On lui doit plusieurs études d'urologie. Il fut un des premiers à pratiquer l'extraction chirurgicale des calculs de la vessie (1732), inventa ou perfectionna des instruments comme l'uréthrotome, le lithotome ou surtout, le gorgeret cystotome dilatateur et fut le premier à extirper un polype de la vessie à travers l'urètre dilaté. 
 Il fut aussi l'inventeur du premier appareil auditif en 1757.
 Il accueille Jacques Bacheley et lui demande de graver ses planches anatomiques. Bacheley réalise également trois vues de Rouen destinées à orner un ouvrage de Le Cat sur la météorologie de la cité normande, finalement resté manuscrit.
 Il collabore aux Affiches et avis de la Haute et Basse Normandie d'Étienne-Vincent Machuel.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traité des sens, Paris, 1744 (lire en ligne).
 Remarques sur les mémoires de l'Académie de chirurgie, 1745.
